--- a/DIMR_Sample/Configuratie.xlsx
+++ b/DIMR_Sample/Configuratie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\DeNieuweStochastentool\DIMR_Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC75301-4F0D-4CE3-9187-754DC8E22FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774FF404-D23C-48ED-AC03-88B14AC12B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="2400" windowWidth="17250" windowHeight="8865" activeTab="1" xr2:uid="{1320BBC0-0CCF-40CC-A646-C0D71023DD33}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1320BBC0-0CCF-40CC-A646-C0D71023DD33}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario's" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="41">
   <si>
     <t>[Structure]</t>
   </si>
@@ -292,13 +292,19 @@
   </si>
   <si>
     <t>*_fou.nc</t>
+  </si>
+  <si>
+    <t>T10000</t>
+  </si>
+  <si>
+    <t>input\T10000\boundary.bc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,12 +319,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -809,29 +809,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04BE58E-B636-4F82-842B-2841F30D30A8}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -863,7 +863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -883,7 +883,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -903,7 +903,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -932,7 +932,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -959,6 +959,35 @@
       </c>
       <c r="J5" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -969,37 +998,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D186A5-C177-4BA1-9030-9F1A701A4A5A}">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="3" customWidth="1"/>
     <col min="3" max="3" width="22" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.88671875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1061,7 +1092,7 @@
       <c r="W1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1117,7 +1148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1173,7 +1204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1229,7 +1260,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1285,9 +1316,121 @@
         <v>40</v>
       </c>
     </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="3">
+        <v>777600</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="3">
+        <v>877600</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" s="3">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M1048576 S2:S1048576 R6:R1048576" xr:uid="{AEDDC2AB-3B3D-4017-99C5-77EB2FDB4493}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R8:R1048576 S2:S1048576 M8:M1048576" xr:uid="{AEDDC2AB-3B3D-4017-99C5-77EB2FDB4493}">
       <formula1>"StructureFile,ExtForceFile,ExtForceFileNew,Boundary"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1305,37 +1448,37 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
